--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_4_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_4_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2857894.355794629</v>
+        <v>2857894.355794628</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570864948.432647</v>
+        <v>59583988.52783269</v>
       </c>
     </row>
   </sheetData>
@@ -676,13 +676,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G2" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -967,7 +967,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X5" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y5" t="n">
         <v>511.3174326828064</v>
@@ -1144,13 +1144,13 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D8" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E8" t="n">
         <v>404.3632896068686</v>
       </c>
       <c r="F8" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G8" t="n">
         <v>397.8840054528454</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C11" t="n">
         <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
         <v>404.3632896068686</v>
@@ -1806,10 +1806,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>25.70923750768745</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
@@ -1864,7 +1864,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H17" t="n">
         <v>347.8590406130752</v>
@@ -2043,10 +2043,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>25.70923750768745</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="21">
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>57.56516074743381</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D26" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E26" t="n">
         <v>404.3632896068686</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2809,13 +2809,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G29" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3225,10 +3225,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E38" t="n">
         <v>404.3632896068686</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3936,10 +3936,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>25.70923750768745</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         <v>648.751427201877</v>
       </c>
       <c r="V44" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W44" t="n">
         <v>638.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
         <v>511.3174326828064</v>
@@ -4324,10 +4324,10 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H3" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4509,7 +4509,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>438.463966970767</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4549,19 +4549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4588,10 +4588,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4615,10 +4615,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4743,10 +4743,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4792,10 +4792,10 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
         <v>894.2358041069906</v>
@@ -4819,10 +4819,10 @@
         <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>2739.192211873577</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N8" t="n">
-        <v>3304.235275746249</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O8" t="n">
         <v>5028.734971800483</v>
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
         <v>1711.662994324041</v>
@@ -5062,7 +5062,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>4214.390158686993</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P11" t="n">
         <v>5864.602299897897</v>
@@ -5299,7 +5299,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>4214.390158686993</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P14" t="n">
         <v>5864.602299897897</v>
@@ -5454,7 +5454,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N16" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O16" t="n">
         <v>140.96</v>
@@ -5503,13 +5503,13 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
         <v>492.3327682960356</v>
@@ -5691,7 +5691,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5758,25 +5758,25 @@
         <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>604.2055058577386</v>
       </c>
       <c r="K20" t="n">
-        <v>1443.861463236568</v>
+        <v>2053.555015773446</v>
       </c>
       <c r="L20" t="n">
-        <v>3188.241463236568</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.420662750071</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622743</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563487</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
         <v>7048</v>
@@ -5803,7 +5803,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5922,10 +5922,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>199.1066270176099</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
         <v>140.96</v>
@@ -6010,10 +6010,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>4214.390158686993</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P23" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q23" t="n">
         <v>6931.116362236997</v>
@@ -6214,16 +6214,16 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6244,13 +6244,13 @@
         <v>2739.192211873577</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.235275746249</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O26" t="n">
-        <v>4214.390158686993</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
         <v>6931.116362236997</v>
@@ -6457,10 +6457,10 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G29" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6691,7 +6691,7 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
         <v>894.2358041069906</v>
@@ -6712,19 +6712,19 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>3083.800289043491</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M32" t="n">
-        <v>3565.979488556994</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N32" t="n">
-        <v>4131.022552429667</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O32" t="n">
-        <v>5041.17743537041</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P32" t="n">
-        <v>5877.044763467824</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6873,7 +6873,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
         <v>140.96</v>
@@ -6958,10 +6958,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O35" t="n">
-        <v>4214.390158686993</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -7162,16 +7162,16 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7198,7 +7198,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7393,22 +7393,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
         <v>140.96</v>
@@ -7423,13 +7423,13 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N41" t="n">
-        <v>4118.58008885974</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O41" t="n">
         <v>5028.734971800483</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7584,7 +7584,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N43" t="n">
         <v>140.96</v>
@@ -7672,7 +7672,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -7690,10 +7690,10 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
         <v>3583.51196363841</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>822.5705182964547</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P11" t="n">
-        <v>822.5705182964543</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182964543</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>615.8520732695737</v>
@@ -9406,13 +9406,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4.473091295036795</v>
       </c>
       <c r="K20" t="n">
-        <v>105.4961355485625</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>835.138663316583</v>
+        <v>835.1386633165828</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9658,13 +9658,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>567.8446588919048</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9892,16 +9892,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>567.8446588919044</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>822.5705182964543</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q32" t="n">
-        <v>603.2839282494458</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10606,13 +10606,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>567.8446588919046</v>
       </c>
       <c r="P35" t="n">
-        <v>822.5705182964543</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q38" t="n">
-        <v>567.8446588919048</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>822.5705182964548</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q44" t="n">
-        <v>567.8446588919048</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23263,13 +23263,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P16" t="n">
         <v>368.8061924102448</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P19" t="n">
         <v>368.8061924102448</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>110.4557669832673</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24697,13 +24697,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>34.66406242702104</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>142.3116902230136</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25930,13 +25930,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15954.38442270378</v>
+        <v>1316006.940470103</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31731.20170604742</v>
+        <v>2606868.406811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47508.01898939106</v>
+        <v>3897729.873151923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65464.68190845994</v>
+        <v>5053973.894141731</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83421.34482752881</v>
+        <v>6210217.91513154</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101378.0077465977</v>
+        <v>7366461.936121341</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119334.6706656666</v>
+        <v>8522705.957111141</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137291.3335847354</v>
+        <v>9678949.978100941</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155247.9965038043</v>
+        <v>10835193.99909074</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173204.6594228731</v>
+        <v>11991438.02008054</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191161.3223419421</v>
+        <v>13147682.04107034</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209117.9852610109</v>
+        <v>14303926.06206015</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227074.6481800799</v>
+        <v>15460170.08304997</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245031.311099149</v>
+        <v>16616414.10403979</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262987.9740182182</v>
+        <v>17772658.12502961</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411311</v>
+        <v>913048.3542411316</v>
       </c>
       <c r="D2" t="n">
         <v>913048.3542411313</v>
       </c>
       <c r="E2" t="n">
-        <v>817831.1367976692</v>
+        <v>817831.136797669</v>
       </c>
       <c r="F2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="G2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="H2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="I2" t="n">
         <v>817831.1367976691</v>
-      </c>
-      <c r="G2" t="n">
-        <v>817831.1367976691</v>
-      </c>
-      <c r="H2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="I2" t="n">
-        <v>817831.1367976693</v>
       </c>
       <c r="J2" t="n">
         <v>817831.1367976691</v>
       </c>
       <c r="K2" t="n">
+        <v>817831.1367976691</v>
+      </c>
+      <c r="L2" t="n">
+        <v>817831.1367976691</v>
+      </c>
+      <c r="M2" t="n">
         <v>817831.136797669</v>
       </c>
-      <c r="L2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="M2" t="n">
-        <v>817831.1367976692</v>
-      </c>
       <c r="N2" t="n">
-        <v>817831.1367976692</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="O2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976685</v>
       </c>
     </row>
     <row r="3">
@@ -26432,22 +26432,22 @@
         <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="H4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="I4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="I4" t="n">
-        <v>26356.19966309946</v>
-      </c>
       <c r="J4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309945</v>
       </c>
       <c r="K4" t="n">
         <v>26356.19966309946</v>
@@ -26530,25 +26530,25 @@
         <v>-1405906.1866451</v>
       </c>
       <c r="C6" t="n">
-        <v>639094.7644093806</v>
+        <v>639094.7644093811</v>
       </c>
       <c r="D6" t="n">
         <v>639397.1250793139</v>
       </c>
       <c r="E6" t="n">
-        <v>652495.5371345698</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="F6" t="n">
         <v>652495.5371345696</v>
       </c>
       <c r="G6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="H6" t="n">
+        <v>652495.5371345691</v>
+      </c>
+      <c r="I6" t="n">
         <v>652495.5371345696</v>
-      </c>
-      <c r="H6" t="n">
-        <v>652495.5371345694</v>
-      </c>
-      <c r="I6" t="n">
-        <v>652495.5371345698</v>
       </c>
       <c r="J6" t="n">
         <v>32271.53713456966</v>
@@ -26557,19 +26557,19 @@
         <v>652495.5371345696</v>
       </c>
       <c r="L6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="M6" t="n">
-        <v>652495.5371345698</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="N6" t="n">
-        <v>652495.5371345698</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="O6" t="n">
         <v>652495.5371345694</v>
       </c>
       <c r="P6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.5371345691</v>
       </c>
     </row>
   </sheetData>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
+        <v>388.0294482079483</v>
+      </c>
+      <c r="P4" t="n">
         <v>400</v>
-      </c>
-      <c r="P4" t="n">
-        <v>388.0294482079483</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27811,7 +27811,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27988,13 +27988,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>19.22325579770347</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35311,13 +35311,13 @@
         <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>1309.62021477474</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
@@ -35554,10 +35554,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P11" t="n">
-        <v>1666.880950718084</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
         <v>1077.286931655656</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718084</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>1077.286931655656</v>
@@ -36250,10 +36250,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>467.9247533916551</v>
       </c>
       <c r="K20" t="n">
-        <v>852.6104219807233</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
         <v>1762</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36502,13 +36502,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1029.279517277987</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36736,16 +36736,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>1138.59522846026</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1666.880950718084</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -37204,7 +37204,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,10 +37216,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q32" t="n">
-        <v>1064.718786635528</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37450,13 +37450,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498716</v>
       </c>
       <c r="P35" t="n">
-        <v>1666.880950718084</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q38" t="n">
-        <v>1029.279517277987</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37915,7 +37915,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1749.431854979872</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,7 +37924,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q44" t="n">
-        <v>1029.279517277987</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
